--- a/Our_Labs/Lab_9/obliczenia_lab_8.xlsx
+++ b/Our_Labs/Lab_9/obliczenia_lab_8.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0A56C0-85E7-4FF5-95D5-C1059BC3D8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3851B84C-066C-4238-B136-609514AD086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EA36EFF5-F6CA-49AC-A755-7C5E122F02F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,12 +28,21 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>L, mH</t>
+  </si>
+  <si>
+    <t>C, nF</t>
+  </si>
   <si>
     <t>f, kHz</t>
   </si>
@@ -45,57 +51,101 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
       <t>U</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>L</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>, V</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
       <t>U</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>, V</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>, kHz</t>
+    </r>
+  </si>
+  <si>
+    <t>Q,</t>
+  </si>
+  <si>
+    <t>x(10^3)</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -105,27 +155,31 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -144,16 +198,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -161,16 +215,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -478,30 +602,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50320D9B-A426-4AC3-9E1A-75EB07AB4F84}">
-  <dimension ref="C4:F61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.4209999999999998</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
         <v>0.1</v>
       </c>
@@ -515,7 +676,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>0.2</v>
       </c>
@@ -529,7 +690,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>0.3</v>
       </c>
@@ -543,7 +704,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>0.4</v>
       </c>
@@ -557,7 +718,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>0.5</v>
       </c>
@@ -571,7 +732,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>0.6</v>
       </c>
@@ -585,7 +746,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>0.7</v>
       </c>
@@ -599,7 +760,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>0.8</v>
       </c>
@@ -613,7 +774,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>0.9</v>
       </c>
@@ -627,7 +788,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -641,7 +802,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -655,7 +816,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>1.2</v>
       </c>
@@ -1300,6 +1461,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>